--- a/biology/Zoologie/Goeldia_funesta/Goeldia_funesta.xlsx
+++ b/biology/Zoologie/Goeldia_funesta/Goeldia_funesta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Goeldia funesta est une espèce d'araignées aranéomorphes de la famille des Titanoecidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Goeldia funesta est une espèce d'araignées aranéomorphes de la famille des Titanoecidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Pérou, en Équateur et en Colombie[1].
-Elle a été introduite aux États-Unis en Floride[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Pérou, en Équateur et en Colombie.
+Elle a été introduite aux États-Unis en Floride,.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 7,3 mm[3].
-Le mâle décrit par Almeida-Silva et Brescovit en 2024 mesure 4,90 mm et la femelle 6,10 mm, les mâles mesurent de 4,60 à 4,90 mm et les femelles de 5,40 à 6,60 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 7,3 mm.
+Le mâle décrit par Almeida-Silva et Brescovit en 2024 mesure 4,90 mm et la femelle 6,10 mm, les mâles mesurent de 4,60 à 4,90 mm et les femelles de 5,40 à 6,60 mm.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Titanoeca funesta par Keyserling en 1883. Elle est placée dans le genre Auximus par Petrunkevitch en 1911[4]. Elle est placée en synonymie avec Goeldia obscura par Lehtinen en 1967[5]. Elle est relevée de synonymie par Almeida-Silva et Brescovit en 2024[2].
-Aymarella munda[6] a été placée en synonymie par Almeida-Silva et Brescovit en 2024[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Titanoeca funesta par Keyserling en 1883. Elle est placée dans le genre Auximus par Petrunkevitch en 1911. Elle est placée en synonymie avec Goeldia obscura par Lehtinen en 1967. Elle est relevée de synonymie par Almeida-Silva et Brescovit en 2024.
+Aymarella munda a été placée en synonymie par Almeida-Silva et Brescovit en 2024.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Keyserling, 1883 : « Neue Spinnen aus Amerika. IV. » Verhandlungen der kaiserlich-königlichen zoologisch-botanischen Gesellschaft in Wien, vol. 32, p. 195-226 (texte intégral).</t>
         </is>
